--- a/Presentation.Web/Content/excel/OS2KITOS Snitflader.xlsx
+++ b/Presentation.Web/Content/excel/OS2KITOS Snitflader.xlsx
@@ -419,12 +419,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E36" sqref="E36"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
